--- a/switches/switches.xlsx
+++ b/switches/switches.xlsx
@@ -265,7 +265,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
